--- a/data/trans_bre/MCS12_SP_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 17,76</t>
+          <t>2,67; 16,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 13,59</t>
+          <t>-2,98; 13,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 8,06</t>
+          <t>-6,98; 7,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 9,24</t>
+          <t>-3,21; 8,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,18; 47,27</t>
+          <t>5,86; 44,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 28,65</t>
+          <t>-5,19; 28,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 18,62</t>
+          <t>-13,99; 16,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 24,18</t>
+          <t>-7,02; 22,37</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,86; 23,25</t>
+          <t>8,74; 23,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,06; 23,49</t>
+          <t>8,56; 23,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 14,25</t>
+          <t>-0,92; 13,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,15; 19,29</t>
+          <t>6,15; 18,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,54; 65,43</t>
+          <t>20,13; 67,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,54; 53,29</t>
+          <t>16,31; 53,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 33,51</t>
+          <t>-1,67; 32,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,83; 59,03</t>
+          <t>14,96; 55,44</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 21,1</t>
+          <t>2,51; 20,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 20,21</t>
+          <t>5,82; 20,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 17,9</t>
+          <t>0,34; 19,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,24; 48,44</t>
+          <t>7,41; 47,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,75; 49,44</t>
+          <t>6,03; 49,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,36; 40,47</t>
+          <t>10,45; 39,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 37,26</t>
+          <t>0,65; 40,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,05; 455,7</t>
+          <t>16,09; 452,19</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 9,5</t>
+          <t>0,26; 10,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 14,2</t>
+          <t>5,16; 14,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 9,79</t>
+          <t>0,94; 10,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,09; 38,59</t>
+          <t>4,34; 36,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 20,33</t>
+          <t>0,57; 22,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,69; 28,74</t>
+          <t>9,61; 29,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 20,39</t>
+          <t>1,92; 21,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,88; 91,09</t>
+          <t>10,03; 93,34</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,46; 22,55</t>
+          <t>8,65; 21,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,66; 23,63</t>
+          <t>12,64; 24,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,54; 17,66</t>
+          <t>7,35; 17,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,21; 22,01</t>
+          <t>1,8; 21,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,87; 58,22</t>
+          <t>17,79; 55,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,91; 55,49</t>
+          <t>25,36; 56,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,49; 37,48</t>
+          <t>13,81; 37,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,56; 50,44</t>
+          <t>3,03; 49,35</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,24; 29,88</t>
+          <t>17,65; 29,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,5; 34,28</t>
+          <t>21,49; 34,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,73; 24,87</t>
+          <t>11,29; 24,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,67; 33,27</t>
+          <t>13,73; 32,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>54,56; 123,41</t>
+          <t>52,47; 118,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>56,81; 128,23</t>
+          <t>55,75; 122,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,5; 89,72</t>
+          <t>30,19; 88,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,51; 179,66</t>
+          <t>36,69; 174,85</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,28; 13,17</t>
+          <t>8,43; 13,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,41; 15,4</t>
+          <t>10,72; 15,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,26; 9,12</t>
+          <t>4,26; 9,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,87; 27,81</t>
+          <t>9,53; 27,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,48; 31,49</t>
+          <t>18,81; 32,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,76; 32,38</t>
+          <t>21,48; 31,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,78; 19,5</t>
+          <t>8,55; 19,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,51; 83,96</t>
+          <t>23,81; 87,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/MCS12_SP_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
